--- a/Power Model Spreadsheet.xlsx
+++ b/Power Model Spreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diyunlu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diyunlu/Documents/GitHub/TECHIN514_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342038AA-5933-C541-9949-4CF14F246B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D7F56B-8EEF-9B42-961F-E3B4CF9B1A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>System Parameters (defined by hardware)</t>
   </si>
@@ -209,6 +209,14 @@
     <t>3. While average power might seem manageable, the peak power consumption can stress the system.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>4. Day of use is determined by the sum of the power consumption of each part. And also I considered duty cycles, the percentage of time the device spends in different power states.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. The software tradeoff I will do to improve user experiece is to adjust the data rate dynamically based on network conditions, which can reduce transmission power needs.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -228,6 +236,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,12 +244,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1520,10 +1531,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Q42"/>
+  <dimension ref="A2:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="116" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2110,6 +2121,16 @@
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="24" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
